--- a/Files/Modules/Dwemer Legacy/Tables/Properties/Aetherium Infused Metal Properties.xlsx
+++ b/Files/Modules/Dwemer Legacy/Tables/Properties/Aetherium Infused Metal Properties.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9764634C-70B1-46BC-B889-8064D319EBD7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -264,7 +265,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -610,7 +611,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -667,11 +668,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -959,7 +960,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
